--- a/data/trans_orig/P36B02_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>945367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>926101</v>
+        <v>926448</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>962538</v>
+        <v>961855</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9162994135673159</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8976254776031982</v>
+        <v>0.8979618751062165</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9329423186602013</v>
+        <v>0.9322804718443387</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1214</v>
@@ -765,19 +765,19 @@
         <v>1237726</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1219109</v>
+        <v>1218003</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1253274</v>
+        <v>1253194</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9411556620279843</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9269991548665345</v>
+        <v>0.9261586819161061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9529779711215211</v>
+        <v>0.9529175296017022</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2164</v>
@@ -786,19 +786,19 @@
         <v>2183092</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2152853</v>
+        <v>2158886</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2206317</v>
+        <v>2207679</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9302282836246445</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9173432761416723</v>
+        <v>0.9199137822151666</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9401246561233115</v>
+        <v>0.9407047336014189</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>86356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69185</v>
+        <v>69868</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105622</v>
+        <v>105275</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0837005864326841</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06705768133979875</v>
+        <v>0.06771952815566133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1023745223968018</v>
+        <v>0.1020381248937838</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -836,19 +836,19 @@
         <v>77387</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61839</v>
+        <v>61919</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96004</v>
+        <v>97110</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05884433797201576</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04702202887847902</v>
+        <v>0.04708247039829782</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07300084513346555</v>
+        <v>0.07384131808389395</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>165</v>
@@ -857,19 +857,19 @@
         <v>163743</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>140518</v>
+        <v>139156</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193982</v>
+        <v>187949</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06977171637535556</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05987534387668803</v>
+        <v>0.05929526639858104</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08265672385832767</v>
+        <v>0.08008621778483337</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>1574234</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1550831</v>
+        <v>1550155</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1594927</v>
+        <v>1594496</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.930106497489779</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9162791645297845</v>
+        <v>0.9158797946552769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9423322341961833</v>
+        <v>0.9420778402433536</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1457</v>
@@ -982,19 +982,19 @@
         <v>1487019</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1466662</v>
+        <v>1466884</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1505235</v>
+        <v>1504251</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9372714925537988</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.924440658758491</v>
+        <v>0.9245805073821248</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.948753374274107</v>
+        <v>0.9481328901822265</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2994</v>
@@ -1003,19 +1003,19 @@
         <v>3061253</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3031750</v>
+        <v>3033239</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3089184</v>
+        <v>3091214</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9335731971407235</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9245757666660701</v>
+        <v>0.9250298669344472</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9420910800512003</v>
+        <v>0.9427102370715243</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>118297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97604</v>
+        <v>98035</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>141700</v>
+        <v>142376</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06989350251022095</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05766776580381684</v>
+        <v>0.05792215975664623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08372083547021553</v>
+        <v>0.08412020534472299</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>96</v>
@@ -1053,19 +1053,19 @@
         <v>99521</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>81305</v>
+        <v>82289</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>119878</v>
+        <v>119656</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0627285074462012</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05124662572589288</v>
+        <v>0.05186710981777379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0755593412415088</v>
+        <v>0.07541949261787528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>207</v>
@@ -1074,19 +1074,19 @@
         <v>217818</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>189887</v>
+        <v>187857</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>247321</v>
+        <v>245832</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06642680285927645</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05790891994879947</v>
+        <v>0.05728976292847542</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07542423333392982</v>
+        <v>0.07497013306555272</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>522941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>510935</v>
+        <v>511269</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>532326</v>
+        <v>532265</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9483738504197292</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.926600613698137</v>
+        <v>0.9272064499927225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9653942832820533</v>
+        <v>0.965282596447062</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>437</v>
@@ -1199,19 +1199,19 @@
         <v>461191</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>452246</v>
+        <v>452292</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>467486</v>
+        <v>467963</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9680516181927904</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9492742569707282</v>
+        <v>0.949372320532069</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9812642625727537</v>
+        <v>0.9822645017693742</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>936</v>
@@ -1220,19 +1220,19 @@
         <v>984132</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>969608</v>
+        <v>968075</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>996022</v>
+        <v>995376</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9574948263215525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9433631537262307</v>
+        <v>0.9418718567303384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9690631573512645</v>
+        <v>0.9684343471279178</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>28467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19082</v>
+        <v>19143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40473</v>
+        <v>40139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05162614958027084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03460571671794661</v>
+        <v>0.0347174035529379</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07339938630186287</v>
+        <v>0.0727935500072775</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1270,19 +1270,19 @@
         <v>15221</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8926</v>
+        <v>8449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24166</v>
+        <v>24120</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03194838180720961</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0187357374272463</v>
+        <v>0.01773549823062595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05072574302927185</v>
+        <v>0.05062767946793101</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -1291,19 +1291,19 @@
         <v>43688</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>31798</v>
+        <v>32444</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58212</v>
+        <v>59745</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04250517367844756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03093684264873543</v>
+        <v>0.03156565287208224</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05663684627376912</v>
+        <v>0.05812814326966171</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3042541</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3011617</v>
+        <v>3008336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3072603</v>
+        <v>3066900</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9288327637095578</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9193922347015256</v>
+        <v>0.9183905642118716</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9380101242385006</v>
+        <v>0.9362691151065636</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3108</v>
@@ -1416,19 +1416,19 @@
         <v>3185936</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3157927</v>
+        <v>3157139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3211411</v>
+        <v>3212934</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9431245864588624</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9348332449852381</v>
+        <v>0.9345997695830968</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9506658952196159</v>
+        <v>0.9511167037688082</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6094</v>
@@ -1437,19 +1437,19 @@
         <v>6228477</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6188258</v>
+        <v>6189986</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6268395</v>
+        <v>6270333</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9360886533320603</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9300440490684013</v>
+        <v>0.9303036556572525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9420879043686058</v>
+        <v>0.9423792449104453</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>233120</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>203058</v>
+        <v>208761</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>264044</v>
+        <v>267325</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07116723629044223</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06198987576149954</v>
+        <v>0.06373088489343658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08060776529847447</v>
+        <v>0.08160943578812875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>188</v>
@@ -1487,19 +1487,19 @@
         <v>192129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166654</v>
+        <v>165131</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>220138</v>
+        <v>220926</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05687541354113756</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04933410478038424</v>
+        <v>0.04888329623119179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06516675501476202</v>
+        <v>0.06540023041690336</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>415</v>
@@ -1508,19 +1508,19 @@
         <v>425249</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>385331</v>
+        <v>383393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>465468</v>
+        <v>463740</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06391134666793978</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05791209563139429</v>
+        <v>0.05762075508955462</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06995595093159868</v>
+        <v>0.06969634434274773</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>891903</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>873264</v>
+        <v>871242</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>909766</v>
+        <v>908744</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9151073393969452</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8959837922347751</v>
+        <v>0.8939086495019147</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9334347885604515</v>
+        <v>0.9323868469127127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1182</v>
@@ -1872,19 +1872,19 @@
         <v>1268001</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1252035</v>
+        <v>1249955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1282936</v>
+        <v>1283056</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9492685710529406</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9373157849213702</v>
+        <v>0.9357586369248526</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9604494930304225</v>
+        <v>0.9605391387394728</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2015</v>
@@ -1893,19 +1893,19 @@
         <v>2159904</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2134468</v>
+        <v>2133993</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2183827</v>
+        <v>2185238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9348577028296335</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.923848453369274</v>
+        <v>0.9236428100789403</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9452123967481453</v>
+        <v>0.9458229014220173</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>82740</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64877</v>
+        <v>65899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101379</v>
+        <v>103401</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08489266060305481</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06656521143954837</v>
+        <v>0.06761315308728738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1040162077652249</v>
+        <v>0.1060913504980853</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -1943,19 +1943,19 @@
         <v>67765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52830</v>
+        <v>52710</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83731</v>
+        <v>85811</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05073142894705939</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03955050696957738</v>
+        <v>0.03946086126052738</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06268421507862976</v>
+        <v>0.06424136307514766</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>138</v>
@@ -1964,19 +1964,19 @@
         <v>150505</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126582</v>
+        <v>125171</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>175941</v>
+        <v>176416</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06514229717036647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05478760325185496</v>
+        <v>0.05417709857798265</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07615154663072655</v>
+        <v>0.07635718992105955</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>1846843</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1823269</v>
+        <v>1822535</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1866231</v>
+        <v>1865870</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9408057907300108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9287970519218912</v>
+        <v>0.9284227502227667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9506823720229488</v>
+        <v>0.9504983762194376</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1531</v>
@@ -2089,19 +2089,19 @@
         <v>1643117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1621301</v>
+        <v>1621768</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1662547</v>
+        <v>1663772</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9363489645685596</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9239167544545808</v>
+        <v>0.9241830733108022</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9474214270239044</v>
+        <v>0.9481191939531024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3278</v>
@@ -2110,19 +2110,19 @@
         <v>3489960</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3457403</v>
+        <v>3460433</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3517840</v>
+        <v>3519974</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9387021872426442</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9299450362706011</v>
+        <v>0.9307601259591844</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9462011292278261</v>
+        <v>0.9467750921902177</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>116201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>96813</v>
+        <v>97174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139775</v>
+        <v>140509</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05919420926998921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04931762797705123</v>
+        <v>0.04950162378056249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07120294807810877</v>
+        <v>0.07157724977723337</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -2160,19 +2160,19 @@
         <v>111696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>92266</v>
+        <v>91041</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>133512</v>
+        <v>133045</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06365103543144039</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05257857297609566</v>
+        <v>0.05188080604689775</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07608324554541979</v>
+        <v>0.07581692668919801</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>209</v>
@@ -2181,19 +2181,19 @@
         <v>227897</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>200017</v>
+        <v>197883</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>260454</v>
+        <v>257424</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06129781275735575</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0537988707721739</v>
+        <v>0.05322490780978217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07005496372939886</v>
+        <v>0.06923987404081562</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>453117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>438603</v>
+        <v>440237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>462148</v>
+        <v>462832</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9416761785591303</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9115130895643905</v>
+        <v>0.9149085066154958</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9604451909039661</v>
+        <v>0.9618658811443849</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>385</v>
@@ -2306,19 +2306,19 @@
         <v>429822</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>416528</v>
+        <v>419165</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>438419</v>
+        <v>439279</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9390363408100983</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9099911831090215</v>
+        <v>0.9157542759421441</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9578182430803929</v>
+        <v>0.9596970406978391</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>798</v>
@@ -2327,19 +2327,19 @@
         <v>882939</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>865815</v>
+        <v>867113</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>896191</v>
+        <v>897295</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9403892321732814</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9221509050258363</v>
+        <v>0.923533598253774</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9545031439032361</v>
+        <v>0.9556795897604768</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>28064</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19033</v>
+        <v>18349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42578</v>
+        <v>40944</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05832382144086971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03955480909603407</v>
+        <v>0.03813411885561507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0884869104356097</v>
+        <v>0.08509149338450415</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -2377,19 +2377,19 @@
         <v>27905</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19308</v>
+        <v>18448</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41199</v>
+        <v>38562</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06096365918990163</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04218175691960722</v>
+        <v>0.04030295930216082</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09000881689097895</v>
+        <v>0.08424572405785595</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>51</v>
@@ -2398,19 +2398,19 @@
         <v>55969</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42717</v>
+        <v>41613</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73093</v>
+        <v>71795</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05961076782671858</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04549685609676409</v>
+        <v>0.04432041023952331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07784909497416384</v>
+        <v>0.07646640174622606</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>3191863</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3160258</v>
+        <v>3160999</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3222680</v>
+        <v>3221746</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9336022370231689</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9243580219880303</v>
+        <v>0.9245746962540166</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9426161854381457</v>
+        <v>0.9423427696660327</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3098</v>
@@ -2523,19 +2523,19 @@
         <v>3340940</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3313383</v>
+        <v>3309575</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3368471</v>
+        <v>3367003</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9415592420481784</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9337928862810086</v>
+        <v>0.9327198514825439</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9493180745192041</v>
+        <v>0.9489043211616748</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6091</v>
@@ -2544,19 +2544,19 @@
         <v>6532804</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6491365</v>
+        <v>6488564</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6575400</v>
+        <v>6568563</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9376546532160144</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9317068412241337</v>
+        <v>0.931304804942319</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9437684515570344</v>
+        <v>0.9427871554054017</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>227005</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>196188</v>
+        <v>197122</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>258610</v>
+        <v>257869</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06639776297683103</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05738381456185421</v>
+        <v>0.05765723033396816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07564197801196967</v>
+        <v>0.07542530374598377</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>190</v>
@@ -2594,19 +2594,19 @@
         <v>207366</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>179835</v>
+        <v>181303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>234923</v>
+        <v>238731</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05844075795182161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05068192548079579</v>
+        <v>0.05109567883832523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06620711371899128</v>
+        <v>0.06728014851745609</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>398</v>
@@ -2615,19 +2615,19 @@
         <v>434371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>391775</v>
+        <v>398612</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>475810</v>
+        <v>478611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06234534678398567</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05623154844296586</v>
+        <v>0.05721284459459816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06829315877586625</v>
+        <v>0.0686951950576809</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>685928</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>668322</v>
+        <v>669732</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>701003</v>
+        <v>701150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9116600605722526</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8882595355627992</v>
+        <v>0.8901329863502679</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9316958036797839</v>
+        <v>0.931890500520364</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>851</v>
@@ -2979,19 +2979,19 @@
         <v>951816</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>936579</v>
+        <v>937883</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>962995</v>
+        <v>963407</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9577738756846143</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9424417402810973</v>
+        <v>0.9437545807969555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9690228739601309</v>
+        <v>0.9694380706007958</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1547</v>
@@ -3000,19 +3000,19 @@
         <v>1637744</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1617817</v>
+        <v>1614821</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1657501</v>
+        <v>1656809</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9379042663700279</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9264926578663276</v>
+        <v>0.9247769321026829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9492187380350403</v>
+        <v>0.9488222398560364</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>66467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51392</v>
+        <v>51245</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84073</v>
+        <v>82663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08833993942774739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06830419632021598</v>
+        <v>0.06810949947963604</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1117404644371998</v>
+        <v>0.1098670136497324</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -3050,19 +3050,19 @@
         <v>41963</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30784</v>
+        <v>30372</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57200</v>
+        <v>55896</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04222612431538577</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03097712603986846</v>
+        <v>0.03056192939920351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05755825971890275</v>
+        <v>0.05624541920304384</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>104</v>
@@ -3071,19 +3071,19 @@
         <v>108430</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>88673</v>
+        <v>89365</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>128357</v>
+        <v>131353</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06209573362997208</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05078126196495979</v>
+        <v>0.0511777601439636</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07350734213367244</v>
+        <v>0.07522306789731714</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>1889508</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1859574</v>
+        <v>1860762</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1915199</v>
+        <v>1913086</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9121732159453051</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8977227952813109</v>
+        <v>0.8982962113208944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9245760192183251</v>
+        <v>0.9235557809790136</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1786</v>
@@ -3196,19 +3196,19 @@
         <v>1861439</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1840518</v>
+        <v>1838801</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1882065</v>
+        <v>1883623</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9371794009660683</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9266463040885853</v>
+        <v>0.9257818237042319</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9475641983690243</v>
+        <v>0.948348531960252</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3566</v>
@@ -3217,19 +3217,19 @@
         <v>3750946</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3714198</v>
+        <v>3715717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3783304</v>
+        <v>3785786</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9244137112208256</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9153572309145401</v>
+        <v>0.9157313757841229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9323880995151361</v>
+        <v>0.932999760981297</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>181927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>156236</v>
+        <v>158349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>211861</v>
+        <v>210673</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08782678405469492</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07542398078167493</v>
+        <v>0.0764442190209865</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.102277204718689</v>
+        <v>0.1017037886791055</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -3267,19 +3267,19 @@
         <v>124775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>104149</v>
+        <v>102591</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>145696</v>
+        <v>147413</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06282059903393172</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05243580163097566</v>
+        <v>0.05165146803974802</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07335369591141475</v>
+        <v>0.07421817629576814</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>287</v>
@@ -3288,19 +3288,19 @@
         <v>306703</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>274345</v>
+        <v>271863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>343451</v>
+        <v>341932</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07558628877917435</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06761190048486392</v>
+        <v>0.06700023901870283</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08464276908545991</v>
+        <v>0.08426862421587709</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>516953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>503721</v>
+        <v>504344</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>526655</v>
+        <v>526924</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.945265813152978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9210706710340972</v>
+        <v>0.9222102537682022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9630074619637073</v>
+        <v>0.9634989008917239</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>485</v>
@@ -3413,19 +3413,19 @@
         <v>507350</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>491859</v>
+        <v>494745</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>518339</v>
+        <v>518141</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9238991824069748</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.895689955754103</v>
+        <v>0.9009453013394599</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.943911310311047</v>
+        <v>0.9435498477368772</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>959</v>
@@ -3434,19 +3434,19 @@
         <v>1024304</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1006551</v>
+        <v>1006507</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1041540</v>
+        <v>1039858</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9345605259378292</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9183635544564468</v>
+        <v>0.9183229401155157</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.950287250151772</v>
+        <v>0.9487519520401004</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>29933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20231</v>
+        <v>19962</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43165</v>
+        <v>42542</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05473418684702204</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03699253803629268</v>
+        <v>0.03650109910827617</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07892932896590282</v>
+        <v>0.07778974623179813</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -3484,19 +3484,19 @@
         <v>41790</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30801</v>
+        <v>30999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57281</v>
+        <v>54395</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07610081759302524</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05608868968895285</v>
+        <v>0.05645015226312297</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1043100442458969</v>
+        <v>0.09905469866054024</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -3505,19 +3505,19 @@
         <v>71723</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54487</v>
+        <v>56169</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>89476</v>
+        <v>89520</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06543947406217074</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0497127498482278</v>
+        <v>0.0512480479598996</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08163644554355313</v>
+        <v>0.08167705988448419</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>3092389</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3056188</v>
+        <v>3059199</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3123154</v>
+        <v>3124370</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9174278238082303</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9066879683523362</v>
+        <v>0.9075814694534168</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.926555026108462</v>
+        <v>0.9269157929512784</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3122</v>
@@ -3630,19 +3630,19 @@
         <v>3320604</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3289820</v>
+        <v>3292230</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3348202</v>
+        <v>3344732</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9409122312948704</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9321893474160154</v>
+        <v>0.9328721633701461</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9487321591834242</v>
+        <v>0.9477488553182072</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6072</v>
@@ -3651,19 +3651,19 @@
         <v>6412993</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6367639</v>
+        <v>6366856</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6454601</v>
+        <v>6453900</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9294396232383155</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9228663882332175</v>
+        <v>0.9227530108315435</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9354699626148961</v>
+        <v>0.9353682755400491</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>278327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>247562</v>
+        <v>246346</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>314528</v>
+        <v>311517</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08257217619176968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07344497389153795</v>
+        <v>0.07308420704872157</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09331203164766375</v>
+        <v>0.09241853054658315</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>201</v>
@@ -3701,19 +3701,19 @@
         <v>208529</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>180931</v>
+        <v>184401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>239313</v>
+        <v>236903</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05908776870512953</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05126784081657596</v>
+        <v>0.05225114468179278</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06781065258398454</v>
+        <v>0.06712783662985383</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>459</v>
@@ -3722,19 +3722,19 @@
         <v>486856</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>445248</v>
+        <v>445949</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>532210</v>
+        <v>532993</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07056037676168447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06453003738510379</v>
+        <v>0.0646317244599509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07713361176678245</v>
+        <v>0.07724698916845642</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>489847</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>470493</v>
+        <v>472324</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>507922</v>
+        <v>506100</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8467120132587076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8132582321574193</v>
+        <v>0.8164227362240241</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8779547229769309</v>
+        <v>0.8748045246279699</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1287</v>
@@ -4086,19 +4086,19 @@
         <v>735793</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>722030</v>
+        <v>721142</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>750391</v>
+        <v>749409</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8950836831076049</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8783419283921708</v>
+        <v>0.8772609578699159</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.912842641493028</v>
+        <v>0.9116480324595968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1881</v>
@@ -4107,19 +4107,19 @@
         <v>1225640</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1201863</v>
+        <v>1203170</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1245532</v>
+        <v>1246778</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8751028980082798</v>
+        <v>0.8751028980082797</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8581263521935203</v>
+        <v>0.8590590512002301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8893057378141608</v>
+        <v>0.8901951310282004</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>88682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70607</v>
+        <v>72429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108036</v>
+        <v>106205</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1532879867412925</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1220452770230691</v>
+        <v>0.1251954753720302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1867417678425806</v>
+        <v>0.1835772637759762</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -4157,19 +4157,19 @@
         <v>86245</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71647</v>
+        <v>72629</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100008</v>
+        <v>100896</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1049163168923951</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08715735850697211</v>
+        <v>0.08835196754040292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1216580716078294</v>
+        <v>0.1227390421300837</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>237</v>
@@ -4178,19 +4178,19 @@
         <v>174927</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>155035</v>
+        <v>153789</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>198704</v>
+        <v>197397</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1248971019917204</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1106942621858392</v>
+        <v>0.1098048689717997</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1418736478064798</v>
+        <v>0.1409409487997701</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>1948614</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1907396</v>
+        <v>1909329</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1981840</v>
+        <v>1985884</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.873596335204712</v>
+        <v>0.8735963352047121</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8551172759222183</v>
+        <v>0.8559840955204034</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8884920935824525</v>
+        <v>0.8903050612782313</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2609</v>
@@ -4303,19 +4303,19 @@
         <v>1926212</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1895087</v>
+        <v>1898216</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1950041</v>
+        <v>1953142</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8870861291442209</v>
+        <v>0.8870861291442207</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8727520293059552</v>
+        <v>0.8741930977066011</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8980601151419302</v>
+        <v>0.8994885216342438</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4372</v>
@@ -4324,19 +4324,19 @@
         <v>3874827</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3825695</v>
+        <v>3823509</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3916264</v>
+        <v>3918466</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8802505625254737</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8690892052424659</v>
+        <v>0.8685925241230592</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8896638848734886</v>
+        <v>0.8901642260894561</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>281952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>248726</v>
+        <v>244682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>323170</v>
+        <v>321237</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.126403664795288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1115079064175473</v>
+        <v>0.1096949387217685</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1448827240777816</v>
+        <v>0.1440159044795966</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>312</v>
@@ -4374,19 +4374,19 @@
         <v>245180</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>221351</v>
+        <v>218250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276305</v>
+        <v>273176</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1129138708557792</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1019398848580699</v>
+        <v>0.1005114783657562</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.127247970694045</v>
+        <v>0.1258069022933987</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>541</v>
@@ -4395,19 +4395,19 @@
         <v>527132</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>485695</v>
+        <v>483493</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>576264</v>
+        <v>578450</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1197494374745262</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1103361151265118</v>
+        <v>0.1098357739105443</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1309107947575343</v>
+        <v>0.1314074758769421</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>630917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>611363</v>
+        <v>611297</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>648235</v>
+        <v>647638</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8866340384918378</v>
+        <v>0.8866340384918376</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8591536980163732</v>
+        <v>0.8590608769992639</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9109713024087304</v>
+        <v>0.9101314579014479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>896</v>
@@ -4520,19 +4520,19 @@
         <v>656078</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>637935</v>
+        <v>639296</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>669384</v>
+        <v>670054</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8927720271193481</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8680834579265448</v>
+        <v>0.8699362546900282</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9108788311161137</v>
+        <v>0.9117900473641276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1505</v>
@@ -4541,19 +4541,19 @@
         <v>1286995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1262998</v>
+        <v>1261223</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1309128</v>
+        <v>1309229</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8897524482274696</v>
+        <v>0.8897524482274694</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8731624010117066</v>
+        <v>0.8719352815615218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9050538094716354</v>
+        <v>0.9051238552242845</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>80670</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63352</v>
+        <v>63949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100224</v>
+        <v>100290</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1133659615081623</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0890286975912698</v>
+        <v>0.08986854209855213</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1408463019836268</v>
+        <v>0.1409391230007363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>108</v>
@@ -4591,19 +4591,19 @@
         <v>78799</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>65493</v>
+        <v>64823</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>96942</v>
+        <v>95581</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1072279728806518</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08912116888388655</v>
+        <v>0.08820995263587274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1319165420734554</v>
+        <v>0.1300637453099721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>180</v>
@@ -4612,19 +4612,19 @@
         <v>159469</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>137336</v>
+        <v>137235</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>183466</v>
+        <v>185241</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1102475517725306</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09494619052836459</v>
+        <v>0.09487614477571536</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1268375989882935</v>
+        <v>0.1280647184384782</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>3069380</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3025478</v>
+        <v>3022872</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3115214</v>
+        <v>3113546</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8718137519021018</v>
+        <v>0.8718137519021019</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8593439823702089</v>
+        <v>0.8586039126318495</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8848322962873016</v>
+        <v>0.8843585904554018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4792</v>
@@ -4737,19 +4737,19 @@
         <v>3318082</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3283614</v>
+        <v>3283071</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3352355</v>
+        <v>3356190</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8899702072842204</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8807252301638848</v>
+        <v>0.8805794985239227</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8991627981832968</v>
+        <v>0.9001914233559754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7758</v>
@@ -4758,19 +4758,19 @@
         <v>6387462</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6327759</v>
+        <v>6333222</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6446030</v>
+        <v>6443606</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8811519968212455</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8729159458905081</v>
+        <v>0.8736695310808317</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8892314448928188</v>
+        <v>0.8888970880656666</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>451303</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>405469</v>
+        <v>407137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>495205</v>
+        <v>497811</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1281862480978982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1151677037126983</v>
+        <v>0.1156414095445983</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1406560176297909</v>
+        <v>0.1413960873681505</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>560</v>
@@ -4808,19 +4808,19 @@
         <v>410225</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>375952</v>
+        <v>372117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>444693</v>
+        <v>445236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1100297927157796</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1008372018167029</v>
+        <v>0.09980857664402448</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1192747698361152</v>
+        <v>0.1194205014760771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>958</v>
@@ -4829,19 +4829,19 @@
         <v>861528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>802960</v>
+        <v>805384</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>921231</v>
+        <v>915768</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1188480031787547</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1107685551071812</v>
+        <v>0.1111029119343336</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1270840541094919</v>
+        <v>0.1263304689191685</v>
       </c>
     </row>
     <row r="15">
